--- a/po_analysis_by_asin/B09L9DY4L1_po_data.xlsx
+++ b/po_analysis_by_asin/B09L9DY4L1_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,31 +452,31 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45299</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>198</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>198</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>180</v>
@@ -484,25 +484,225 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>270</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>168</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45362</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B33" t="n">
         <v>78</v>
       </c>
     </row>
@@ -517,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,25 +739,89 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>594</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>270</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B12" t="n">
         <v>246</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09L9DY4L1_po_data.xlsx
+++ b/po_analysis_by_asin/B09L9DY4L1_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -690,22 +690,6 @@
         <v>270</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B32" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B33" t="n">
-        <v>78</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -717,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,14 +801,6 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B12" t="n">
-        <v>246</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B09L9DY4L1_po_data.xlsx
+++ b/po_analysis_by_asin/B09L9DY4L1_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -717,7 +718,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -799,6 +800,579 @@
       </c>
       <c r="B11" t="n">
         <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-77.28143267224191</v>
+      </c>
+      <c r="D2" t="n">
+        <v>86.45051087238308</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-72.24945768309149</v>
+      </c>
+      <c r="D3" t="n">
+        <v>82.01483086411886</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-74.78201274607709</v>
+      </c>
+      <c r="D4" t="n">
+        <v>92.58901210840526</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-68.96355367615692</v>
+      </c>
+      <c r="D5" t="n">
+        <v>95.08685405708117</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-69.42100774736926</v>
+      </c>
+      <c r="D6" t="n">
+        <v>96.30129357207196</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-62.74786726556071</v>
+      </c>
+      <c r="D7" t="n">
+        <v>99.0196067306521</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-58.19238066273903</v>
+      </c>
+      <c r="D8" t="n">
+        <v>101.50160910236</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>22</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-62.76048119160901</v>
+      </c>
+      <c r="D9" t="n">
+        <v>102.9215732593601</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-57.88213334013101</v>
+      </c>
+      <c r="D10" t="n">
+        <v>103.0901366911003</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>26</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-56.58459797967122</v>
+      </c>
+      <c r="D11" t="n">
+        <v>109.2435592020201</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>28</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-47.26828606797573</v>
+      </c>
+      <c r="D12" t="n">
+        <v>117.1600407482476</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-51.44640438030159</v>
+      </c>
+      <c r="D13" t="n">
+        <v>114.1273786918177</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>32</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-55.19672345496927</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.5139297250363</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>70</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-11.65221850307217</v>
+      </c>
+      <c r="D15" t="n">
+        <v>153.6657659423631</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>74</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-5.988097244361484</v>
+      </c>
+      <c r="D16" t="n">
+        <v>153.7737291646864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>76</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-4.169569817528082</v>
+      </c>
+      <c r="D17" t="n">
+        <v>156.8545654804899</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>78</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.6873571918158918</v>
+      </c>
+      <c r="D18" t="n">
+        <v>157.7394415587117</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>80</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-4.471991325381535</v>
+      </c>
+      <c r="D19" t="n">
+        <v>157.1671831991615</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>85</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.3983914118451001</v>
+      </c>
+      <c r="D20" t="n">
+        <v>163.3885365291346</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>87</v>
+      </c>
+      <c r="C21" t="n">
+        <v>10.34244959836469</v>
+      </c>
+      <c r="D21" t="n">
+        <v>169.6222114169857</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>89</v>
+      </c>
+      <c r="C22" t="n">
+        <v>10.18683462476859</v>
+      </c>
+      <c r="D22" t="n">
+        <v>166.9387488577842</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>91</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9.491552241540205</v>
+      </c>
+      <c r="D23" t="n">
+        <v>174.2248996738512</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>93</v>
+      </c>
+      <c r="C24" t="n">
+        <v>11.48890682729036</v>
+      </c>
+      <c r="D24" t="n">
+        <v>174.2400375817063</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>97</v>
+      </c>
+      <c r="C25" t="n">
+        <v>18.32810514047229</v>
+      </c>
+      <c r="D25" t="n">
+        <v>184.5974863731057</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>99</v>
+      </c>
+      <c r="C26" t="n">
+        <v>17.53113881690335</v>
+      </c>
+      <c r="D26" t="n">
+        <v>179.5190821161389</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>112</v>
+      </c>
+      <c r="C27" t="n">
+        <v>33.07595061980714</v>
+      </c>
+      <c r="D27" t="n">
+        <v>194.6352862919885</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>114</v>
+      </c>
+      <c r="C28" t="n">
+        <v>33.0594487150757</v>
+      </c>
+      <c r="D28" t="n">
+        <v>190.5244041076946</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>116</v>
+      </c>
+      <c r="C29" t="n">
+        <v>31.80887308914632</v>
+      </c>
+      <c r="D29" t="n">
+        <v>196.7901675769421</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>118</v>
+      </c>
+      <c r="C30" t="n">
+        <v>36.10428835073935</v>
+      </c>
+      <c r="D30" t="n">
+        <v>201.7184603814881</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>120</v>
+      </c>
+      <c r="C31" t="n">
+        <v>31.55330295996951</v>
+      </c>
+      <c r="D31" t="n">
+        <v>204.5264939475742</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>122</v>
+      </c>
+      <c r="C32" t="n">
+        <v>42.72923262258423</v>
+      </c>
+      <c r="D32" t="n">
+        <v>200.6665990131972</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>124</v>
+      </c>
+      <c r="C33" t="n">
+        <v>44.01720332311746</v>
+      </c>
+      <c r="D33" t="n">
+        <v>201.4664584498186</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>126</v>
+      </c>
+      <c r="C34" t="n">
+        <v>48.0298490604425</v>
+      </c>
+      <c r="D34" t="n">
+        <v>204.5823188826132</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>128</v>
+      </c>
+      <c r="C35" t="n">
+        <v>48.74526549523605</v>
+      </c>
+      <c r="D35" t="n">
+        <v>216.8910063961174</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>130</v>
+      </c>
+      <c r="C36" t="n">
+        <v>46.98011758707578</v>
+      </c>
+      <c r="D36" t="n">
+        <v>212.6135134169332</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>133</v>
+      </c>
+      <c r="C37" t="n">
+        <v>47.37226997916014</v>
+      </c>
+      <c r="D37" t="n">
+        <v>213.5389111726843</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>135</v>
+      </c>
+      <c r="C38" t="n">
+        <v>54.52420535116912</v>
+      </c>
+      <c r="D38" t="n">
+        <v>218.5337812297391</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>137</v>
+      </c>
+      <c r="C39" t="n">
+        <v>52.17576353768226</v>
+      </c>
+      <c r="D39" t="n">
+        <v>221.4001117229926</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09L9DY4L1_po_data.xlsx
+++ b/po_analysis_by_asin/B09L9DY4L1_po_data.xlsx
@@ -813,7 +813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,16 +832,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -850,12 +840,6 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>-77.28143267224191</v>
-      </c>
-      <c r="D2" t="n">
-        <v>86.45051087238308</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -864,12 +848,6 @@
       <c r="B3" t="n">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
-        <v>-72.24945768309149</v>
-      </c>
-      <c r="D3" t="n">
-        <v>82.01483086411886</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -878,12 +856,6 @@
       <c r="B4" t="n">
         <v>5</v>
       </c>
-      <c r="C4" t="n">
-        <v>-74.78201274607709</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92.58901210840526</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -892,12 +864,6 @@
       <c r="B5" t="n">
         <v>11</v>
       </c>
-      <c r="C5" t="n">
-        <v>-68.96355367615692</v>
-      </c>
-      <c r="D5" t="n">
-        <v>95.08685405708117</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -906,12 +872,6 @@
       <c r="B6" t="n">
         <v>14</v>
       </c>
-      <c r="C6" t="n">
-        <v>-69.42100774736926</v>
-      </c>
-      <c r="D6" t="n">
-        <v>96.30129357207196</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -920,12 +880,6 @@
       <c r="B7" t="n">
         <v>18</v>
       </c>
-      <c r="C7" t="n">
-        <v>-62.74786726556071</v>
-      </c>
-      <c r="D7" t="n">
-        <v>99.0196067306521</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -934,12 +888,6 @@
       <c r="B8" t="n">
         <v>20</v>
       </c>
-      <c r="C8" t="n">
-        <v>-58.19238066273903</v>
-      </c>
-      <c r="D8" t="n">
-        <v>101.50160910236</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -948,12 +896,6 @@
       <c r="B9" t="n">
         <v>22</v>
       </c>
-      <c r="C9" t="n">
-        <v>-62.76048119160901</v>
-      </c>
-      <c r="D9" t="n">
-        <v>102.9215732593601</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -962,12 +904,6 @@
       <c r="B10" t="n">
         <v>24</v>
       </c>
-      <c r="C10" t="n">
-        <v>-57.88213334013101</v>
-      </c>
-      <c r="D10" t="n">
-        <v>103.0901366911003</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -976,12 +912,6 @@
       <c r="B11" t="n">
         <v>26</v>
       </c>
-      <c r="C11" t="n">
-        <v>-56.58459797967122</v>
-      </c>
-      <c r="D11" t="n">
-        <v>109.2435592020201</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -990,12 +920,6 @@
       <c r="B12" t="n">
         <v>28</v>
       </c>
-      <c r="C12" t="n">
-        <v>-47.26828606797573</v>
-      </c>
-      <c r="D12" t="n">
-        <v>117.1600407482476</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1004,12 +928,6 @@
       <c r="B13" t="n">
         <v>30</v>
       </c>
-      <c r="C13" t="n">
-        <v>-51.44640438030159</v>
-      </c>
-      <c r="D13" t="n">
-        <v>114.1273786918177</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1018,12 +936,6 @@
       <c r="B14" t="n">
         <v>32</v>
       </c>
-      <c r="C14" t="n">
-        <v>-55.19672345496927</v>
-      </c>
-      <c r="D14" t="n">
-        <v>117.5139297250363</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1032,12 +944,6 @@
       <c r="B15" t="n">
         <v>70</v>
       </c>
-      <c r="C15" t="n">
-        <v>-11.65221850307217</v>
-      </c>
-      <c r="D15" t="n">
-        <v>153.6657659423631</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1046,12 +952,6 @@
       <c r="B16" t="n">
         <v>74</v>
       </c>
-      <c r="C16" t="n">
-        <v>-5.988097244361484</v>
-      </c>
-      <c r="D16" t="n">
-        <v>153.7737291646864</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1060,12 +960,6 @@
       <c r="B17" t="n">
         <v>76</v>
       </c>
-      <c r="C17" t="n">
-        <v>-4.169569817528082</v>
-      </c>
-      <c r="D17" t="n">
-        <v>156.8545654804899</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1074,12 +968,6 @@
       <c r="B18" t="n">
         <v>78</v>
       </c>
-      <c r="C18" t="n">
-        <v>-0.6873571918158918</v>
-      </c>
-      <c r="D18" t="n">
-        <v>157.7394415587117</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1088,12 +976,6 @@
       <c r="B19" t="n">
         <v>80</v>
       </c>
-      <c r="C19" t="n">
-        <v>-4.471991325381535</v>
-      </c>
-      <c r="D19" t="n">
-        <v>157.1671831991615</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1102,12 +984,6 @@
       <c r="B20" t="n">
         <v>85</v>
       </c>
-      <c r="C20" t="n">
-        <v>-0.3983914118451001</v>
-      </c>
-      <c r="D20" t="n">
-        <v>163.3885365291346</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1116,12 +992,6 @@
       <c r="B21" t="n">
         <v>87</v>
       </c>
-      <c r="C21" t="n">
-        <v>10.34244959836469</v>
-      </c>
-      <c r="D21" t="n">
-        <v>169.6222114169857</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1130,12 +1000,6 @@
       <c r="B22" t="n">
         <v>89</v>
       </c>
-      <c r="C22" t="n">
-        <v>10.18683462476859</v>
-      </c>
-      <c r="D22" t="n">
-        <v>166.9387488577842</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1144,12 +1008,6 @@
       <c r="B23" t="n">
         <v>91</v>
       </c>
-      <c r="C23" t="n">
-        <v>9.491552241540205</v>
-      </c>
-      <c r="D23" t="n">
-        <v>174.2248996738512</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1158,12 +1016,6 @@
       <c r="B24" t="n">
         <v>93</v>
       </c>
-      <c r="C24" t="n">
-        <v>11.48890682729036</v>
-      </c>
-      <c r="D24" t="n">
-        <v>174.2400375817063</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1172,12 +1024,6 @@
       <c r="B25" t="n">
         <v>97</v>
       </c>
-      <c r="C25" t="n">
-        <v>18.32810514047229</v>
-      </c>
-      <c r="D25" t="n">
-        <v>184.5974863731057</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1186,12 +1032,6 @@
       <c r="B26" t="n">
         <v>99</v>
       </c>
-      <c r="C26" t="n">
-        <v>17.53113881690335</v>
-      </c>
-      <c r="D26" t="n">
-        <v>179.5190821161389</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1200,12 +1040,6 @@
       <c r="B27" t="n">
         <v>112</v>
       </c>
-      <c r="C27" t="n">
-        <v>33.07595061980714</v>
-      </c>
-      <c r="D27" t="n">
-        <v>194.6352862919885</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1214,12 +1048,6 @@
       <c r="B28" t="n">
         <v>114</v>
       </c>
-      <c r="C28" t="n">
-        <v>33.0594487150757</v>
-      </c>
-      <c r="D28" t="n">
-        <v>190.5244041076946</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1228,12 +1056,6 @@
       <c r="B29" t="n">
         <v>116</v>
       </c>
-      <c r="C29" t="n">
-        <v>31.80887308914632</v>
-      </c>
-      <c r="D29" t="n">
-        <v>196.7901675769421</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1242,12 +1064,6 @@
       <c r="B30" t="n">
         <v>118</v>
       </c>
-      <c r="C30" t="n">
-        <v>36.10428835073935</v>
-      </c>
-      <c r="D30" t="n">
-        <v>201.7184603814881</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1256,12 +1072,6 @@
       <c r="B31" t="n">
         <v>120</v>
       </c>
-      <c r="C31" t="n">
-        <v>31.55330295996951</v>
-      </c>
-      <c r="D31" t="n">
-        <v>204.5264939475742</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1270,12 +1080,6 @@
       <c r="B32" t="n">
         <v>122</v>
       </c>
-      <c r="C32" t="n">
-        <v>42.72923262258423</v>
-      </c>
-      <c r="D32" t="n">
-        <v>200.6665990131972</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1284,12 +1088,6 @@
       <c r="B33" t="n">
         <v>124</v>
       </c>
-      <c r="C33" t="n">
-        <v>44.01720332311746</v>
-      </c>
-      <c r="D33" t="n">
-        <v>201.4664584498186</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1298,12 +1096,6 @@
       <c r="B34" t="n">
         <v>126</v>
       </c>
-      <c r="C34" t="n">
-        <v>48.0298490604425</v>
-      </c>
-      <c r="D34" t="n">
-        <v>204.5823188826132</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1312,12 +1104,6 @@
       <c r="B35" t="n">
         <v>128</v>
       </c>
-      <c r="C35" t="n">
-        <v>48.74526549523605</v>
-      </c>
-      <c r="D35" t="n">
-        <v>216.8910063961174</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1326,12 +1112,6 @@
       <c r="B36" t="n">
         <v>130</v>
       </c>
-      <c r="C36" t="n">
-        <v>46.98011758707578</v>
-      </c>
-      <c r="D36" t="n">
-        <v>212.6135134169332</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1340,12 +1120,6 @@
       <c r="B37" t="n">
         <v>133</v>
       </c>
-      <c r="C37" t="n">
-        <v>47.37226997916014</v>
-      </c>
-      <c r="D37" t="n">
-        <v>213.5389111726843</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1354,12 +1128,6 @@
       <c r="B38" t="n">
         <v>135</v>
       </c>
-      <c r="C38" t="n">
-        <v>54.52420535116912</v>
-      </c>
-      <c r="D38" t="n">
-        <v>218.5337812297391</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1367,12 +1135,6 @@
       </c>
       <c r="B39" t="n">
         <v>137</v>
-      </c>
-      <c r="C39" t="n">
-        <v>52.17576353768226</v>
-      </c>
-      <c r="D39" t="n">
-        <v>221.4001117229926</v>
       </c>
     </row>
   </sheetData>
